--- a/RandomForest/CV/Metrics.xlsx
+++ b/RandomForest/CV/Metrics.xlsx
@@ -5,20 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\IdentificationOfTSG-OG\TSG_OG_classifier\RandomForest\CV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\IdentifyTSGOG\RandomForest\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="New" sheetId="2" r:id="rId2"/>
     <sheet name="OLd" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Consolidated" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -192,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -201,6 +200,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,13 +482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:Q16"/>
+  <dimension ref="A4:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:Q16"/>
+      <selection activeCell="E17" sqref="E17:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
@@ -830,19 +834,19 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f>AVERAGE(D5:D14)</f>
         <v>0.86136000000000001</v>
       </c>
-      <c r="E15">
-        <f t="shared" ref="E15:G16" si="0">AVERAGE(E5,E7,E9,E11,E13)</f>
+      <c r="E15" s="1">
+        <f>AVERAGE(E5,E7,E9,E11,E13)</f>
         <v>0.77384000000000008</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
+      <c r="F15" s="1">
+        <f t="shared" ref="E15:G16" si="0">AVERAGE(F5,F7,F9,F11,F13)</f>
         <v>0.92915999999999987</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>0.66505999999999987</v>
       </c>
@@ -852,19 +856,19 @@
       <c r="M15" t="s">
         <v>5</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <f>AVERAGE(N5:N14)</f>
         <v>0.76083999999999996</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <f t="shared" ref="O15:Q16" si="1">AVERAGE(O5,O7,O9,O11,O13)</f>
         <v>0.58507999999999993</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <f t="shared" si="1"/>
         <v>0.79220000000000002</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <f t="shared" si="1"/>
         <v>0.49581999999999998</v>
       </c>
@@ -873,40 +877,94 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89993999999999996</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83792000000000011</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97241999999999995</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1">
+        <f>_xlfn.STDEV.S(N5:N14)</f>
+        <v>3.1948208087465568E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82987999999999995</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76822000000000001</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91163999999999989</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D17" s="1">
         <f>_xlfn.STDEV.S(D5:D14)</f>
         <v>3.9685992491054069E-2</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0.89993999999999996</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0.83792000000000011</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0.97241999999999995</v>
-      </c>
-      <c r="M16" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16">
-        <f>_xlfn.STDEV.S(N5:N14)</f>
-        <v>3.1948208087465568E-2</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
-        <v>0.82987999999999995</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="1"/>
-        <v>0.76822000000000001</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>0.91163999999999989</v>
+      <c r="E17" s="1">
+        <f>_xlfn.STDEV.S(E5,E7,E9,E11,E13)</f>
+        <v>7.273426290270632E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ref="F17:G18" si="2">_xlfn.STDEV.S(F5,F7,F9,F11,F13)</f>
+        <v>4.1832857899024779E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8916157136934695E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <f>_xlfn.STDEV.S(O5,O7,O9,O11,O13)</f>
+        <v>0.10395206587653791</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" ref="P17:Q17" si="3">_xlfn.STDEV.S(P5,P7,P9,P11,P13)</f>
+        <v>0.11919389665582648</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18597154889928744</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <f>_xlfn.STDEV.S(E6,E8,E10,E12,E14)</f>
+        <v>2.7020140636199508E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7799695765971447E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4562863729363152E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <f>_xlfn.STDEV.S(O6,O8,O10,O12,O14)</f>
+        <v>1.6040791751032731E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" ref="P18:Q18" si="4">_xlfn.STDEV.S(P6,P8,P10,P12,P14)</f>
+        <v>6.6262334700793624E-2</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="4"/>
+        <v>6.7441774887676262E-2</v>
       </c>
     </row>
   </sheetData>
@@ -917,10 +975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:Q19"/>
+  <dimension ref="A7:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:Q19"/>
+      <selection activeCell="D20" sqref="D20:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,71 +1324,151 @@
       </c>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D18">
+      <c r="D18" s="1">
         <f>AVERAGE(D8:D17)</f>
         <v>0.83097999999999994</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <f t="shared" ref="E18:G19" si="0">AVERAGE(E8,E10,E12,E14,E16)</f>
         <v>0.71787999999999996</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>0.90454000000000012</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>0.59748000000000001</v>
       </c>
-      <c r="N18">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
         <f>AVERAGE(N8:N17)</f>
         <v>0.67212000000000005</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <f t="shared" ref="O18:Q19" si="1">AVERAGE(O8,O10,O12,O14,O16)</f>
         <v>0.44420000000000004</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="1">
         <f t="shared" si="1"/>
         <v>0.59919999999999995</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <f t="shared" si="1"/>
         <v>0.37918000000000002</v>
       </c>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D19">
+      <c r="D19" s="1">
         <f>_xlfn.STDEV.S(D8:D17)</f>
         <v>1.607877482894763E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>0.87919999999999998</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>0.80906</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <f t="shared" si="0"/>
         <v>0.96319999999999995</v>
       </c>
-      <c r="N19">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
         <f>_xlfn.STDEV.S(N8:N17)</f>
         <v>6.1897512066318133E-2</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <f t="shared" si="1"/>
         <v>0.76402000000000003</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <f t="shared" si="1"/>
         <v>0.70777999999999996</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <f t="shared" si="1"/>
         <v>0.83861999999999992</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <f>_xlfn.STDEV.S(E8,E10,E12,E14,E16)</f>
+        <v>3.4858026335408056E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ref="F20:G21" si="2">_xlfn.STDEV.S(F8,F10,F12,F14,F16)</f>
+        <v>4.4024288750643077E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9603296261438112E-2</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1">
+        <f>_xlfn.STDEV.S(O8,O10,O12,O14,O16)</f>
+        <v>0.12872480335972547</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" ref="P20:Q21" si="3">_xlfn.STDEV.S(P8,P10,P12,P14,P16)</f>
+        <v>0.1863390324113551</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16265889769699043</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <f>_xlfn.STDEV.S(E9,E11,E13,E15,E17)</f>
+        <v>1.0670520137275423E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7318718197372438E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9693399909614391E-2</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1">
+        <f>_xlfn.STDEV.S(O9,O11,O13,O15,O17)</f>
+        <v>4.9057384765191052E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9284855686102989E-2</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10566398156420251</v>
       </c>
     </row>
   </sheetData>
@@ -1343,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="N9:Q9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1780,35 +1918,41 @@
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <f>AVERAGE(D10:D19)</f>
         <v>0.84045999999999998</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <f t="shared" ref="E20:G21" si="0">AVERAGE(E10,E12,E14,E16,E18)</f>
         <v>0.75038000000000005</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>0.86069999999999991</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>0.66916000000000009</v>
       </c>
-      <c r="N20">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
         <f>AVERAGE(N10:N19)</f>
         <v>0.7466799999999999</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <f t="shared" ref="O20:Q21" si="1">AVERAGE(O10,O12,O14,O16,O18)</f>
         <v>0.59216000000000002</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <f t="shared" si="1"/>
         <v>0.71016000000000001</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <f t="shared" si="1"/>
         <v>0.51916000000000007</v>
       </c>
@@ -1817,37 +1961,111 @@
       <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <f>_xlfn.STDEV.S(D10:D19)</f>
         <v>4.5517502128302252E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>0.88257999999999992</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>0.83452000000000004</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>0.93756000000000006</v>
       </c>
-      <c r="N21">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1">
         <f>_xlfn.STDEV.S(N10:N19)</f>
         <v>4.3920177595269359E-2</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <f t="shared" si="1"/>
         <v>0.81501999999999997</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <f t="shared" si="1"/>
         <v>0.76506000000000007</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <f t="shared" si="1"/>
         <v>0.87540000000000018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <f>_xlfn.STDEV.S(E10,E12,E14,E16,E18)</f>
+        <v>7.4470410231178383E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" ref="F22:G23" si="2">_xlfn.STDEV.S(F10,F12,F14,F16,F18)</f>
+        <v>7.5124962562386668E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0960419963848682E-2</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1">
+        <f>_xlfn.STDEV.S(O10,O12,O14,O16,O18)</f>
+        <v>9.4784297222693353E-2</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" ref="P22:Q23" si="3">_xlfn.STDEV.S(P10,P12,P14,P16,P18)</f>
+        <v>0.107129211702505</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12119962046145168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <f>_xlfn.STDEV.S(E11,E13,E15,E17,E19)</f>
+        <v>3.3281105750861094E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="2"/>
+        <v>4.0465750950649602E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8526393550396047E-2</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1">
+        <f>_xlfn.STDEV.S(O11,O13,O15,O17,O19)</f>
+        <v>3.1401066860856808E-2</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1003451074269351E-2</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="3"/>
+        <v>6.0470281957338348E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
@@ -3027,21 +3245,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P9"/>
+  <dimension ref="B2:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
@@ -3076,7 +3310,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
@@ -3097,7 +3331,7 @@
       <c r="H4" s="1">
         <v>0.66505999999999987</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K4" t="s">
@@ -3120,6 +3354,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -3134,6 +3369,7 @@
       <c r="H5" s="1">
         <v>0.97241999999999995</v>
       </c>
+      <c r="J5" s="2"/>
       <c r="K5" t="s">
         <v>6</v>
       </c>
@@ -3150,7 +3386,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="s">
@@ -3171,7 +3407,7 @@
       <c r="H6" s="1">
         <v>0.59748000000000001</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K6" t="s">
@@ -3194,6 +3430,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -3208,6 +3445,7 @@
       <c r="H7" s="1">
         <v>0.96319999999999995</v>
       </c>
+      <c r="J7" s="2"/>
       <c r="K7" t="s">
         <v>6</v>
       </c>
@@ -3224,7 +3462,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C8" t="s">
@@ -3245,7 +3483,7 @@
       <c r="H8" s="1">
         <v>0.66916000000000009</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K8" t="s">
@@ -3268,6 +3506,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -3282,6 +3521,7 @@
       <c r="H9" s="1">
         <v>0.93756000000000006</v>
       </c>
+      <c r="J9" s="2"/>
       <c r="K9" t="s">
         <v>6</v>
       </c>
@@ -3297,12 +3537,138 @@
         <v>0.87540000000000018</v>
       </c>
     </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="J13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="J14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="J15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="J16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="J18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="D4:D5"/>
+  <mergeCells count="20">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="L4:L5"/>
@@ -3311,6 +3677,18 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RandomForest/CV/Metrics.xlsx
+++ b/RandomForest/CV/Metrics.xlsx
@@ -15,8 +15,11 @@
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="New" sheetId="2" r:id="rId2"/>
     <sheet name="OLd" sheetId="3" r:id="rId3"/>
-    <sheet name="Consolidated" sheetId="4" r:id="rId4"/>
+    <sheet name="Feature ranking" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Feature ranking'!$H$2:$I$20</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="67">
   <si>
     <t>Accuracy</t>
   </si>
@@ -63,9 +66,6 @@
   </si>
   <si>
     <t>criterion:gini</t>
-  </si>
-  <si>
-    <t>Feature Ranking</t>
   </si>
   <si>
     <t>MissenseEntr</t>
@@ -157,13 +157,96 @@
   <si>
     <t>Old</t>
   </si>
+  <si>
+    <t>NonsenseEntr</t>
+  </si>
+  <si>
+    <t>Hifi/benign</t>
+  </si>
+  <si>
+    <t>HiMisFreq</t>
+  </si>
+  <si>
+    <t>Compound/benign</t>
+  </si>
+  <si>
+    <t>TotMifi</t>
+  </si>
+  <si>
+    <t>Hifi/Lofi</t>
+  </si>
+  <si>
+    <t>HiNonsenseFreq</t>
+  </si>
+  <si>
+    <t>Mifi/kb</t>
+  </si>
+  <si>
+    <t>Nonstop/kb</t>
+  </si>
+  <si>
+    <t>Inframe/kb</t>
+  </si>
+  <si>
+    <t>Complex/kb</t>
+  </si>
+  <si>
+    <t>Compound/kB</t>
+  </si>
+  <si>
+    <t>Damaging/kb</t>
+  </si>
+  <si>
+    <t>Damaging/benign</t>
+  </si>
+  <si>
+    <t>Damaging/Lofi</t>
+  </si>
+  <si>
+    <t>FSEntr</t>
+  </si>
+  <si>
+    <t>HiFSFreq</t>
+  </si>
+  <si>
+    <t>SplicEntr</t>
+  </si>
+  <si>
+    <t>HiSplicFreq</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>Average rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr. no </t>
+  </si>
+  <si>
+    <t>Sr no</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -194,14 +277,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:Q18"/>
+  <dimension ref="A2:S58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:Q18"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,6 +574,11 @@
     <col min="5" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>0</v>
@@ -910,17 +996,17 @@
         <v>0.91163999999999989</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D17" s="1">
         <f>_xlfn.STDEV.S(D5:D14)</f>
         <v>3.9685992491054069E-2</v>
       </c>
       <c r="E17" s="1">
-        <f>_xlfn.STDEV.S(E5,E7,E9,E11,E13)</f>
+        <f t="shared" ref="E17:G18" si="2">_xlfn.STDEV.S(E5,E7,E9,E11,E13)</f>
         <v>7.273426290270632E-2</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" ref="F17:G18" si="2">_xlfn.STDEV.S(F5,F7,F9,F11,F13)</f>
+        <f t="shared" si="2"/>
         <v>4.1832857899024779E-2</v>
       </c>
       <c r="G17" s="1">
@@ -928,11 +1014,11 @@
         <v>8.8916157136934695E-2</v>
       </c>
       <c r="O17" s="1">
-        <f>_xlfn.STDEV.S(O5,O7,O9,O11,O13)</f>
+        <f t="shared" ref="O17:Q18" si="3">_xlfn.STDEV.S(O5,O7,O9,O11,O13)</f>
         <v>0.10395206587653791</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" ref="P17:Q17" si="3">_xlfn.STDEV.S(P5,P7,P9,P11,P13)</f>
+        <f t="shared" si="3"/>
         <v>0.11919389665582648</v>
       </c>
       <c r="Q17" s="1">
@@ -940,10 +1026,10 @@
         <v>0.18597154889928744</v>
       </c>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <f>_xlfn.STDEV.S(E6,E8,E10,E12,E14)</f>
+        <f t="shared" si="2"/>
         <v>2.7020140636199508E-2</v>
       </c>
       <c r="F18" s="1">
@@ -955,16 +1041,2198 @@
         <v>1.4562863729363152E-2</v>
       </c>
       <c r="O18" s="1">
-        <f>_xlfn.STDEV.S(O6,O8,O10,O12,O14)</f>
+        <f t="shared" si="3"/>
         <v>1.6040791751032731E-2</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" ref="P18:Q18" si="4">_xlfn.STDEV.S(P6,P8,P10,P12,P14)</f>
+        <f t="shared" si="3"/>
         <v>6.6262334700793624E-2</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.7441774887676262E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>0.30680000000000002</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <v>0.1326</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22">
+        <f>AVERAGE(VLOOKUP(R22,B22:D58,3,FALSE),VLOOKUP(R22,E22:G58,3,FALSE),VLOOKUP(R22,H22:J58,3,FALSE),VLOOKUP(R22,K22:M58,3,FALSE),VLOOKUP(R22,N22:P58,3,FALSE))</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23">
+        <v>0.1171</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23">
+        <v>0.1618</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23">
+        <f>AVERAGE(VLOOKUP(R23,B22:D58,3,FALSE),VLOOKUP(R23,E22:G58,3,FALSE),VLOOKUP(R23,H22:J58,3,FALSE),VLOOKUP(R23,K22:M58,3,FALSE),VLOOKUP(R23,N22:P58,3,FALSE))</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>0.1008</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <v>0.1153</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24">
+        <f>AVERAGE(VLOOKUP(R24,B22:D58,3,FALSE),VLOOKUP(R24,E22:G58,3,FALSE),VLOOKUP(R24,H22:J58,3,FALSE),VLOOKUP(R24,K22:M58,3,FALSE),VLOOKUP(R24,N22:P58,3,FALSE))</f>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>0.1046</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25">
+        <f>AVERAGE(VLOOKUP(R25,B22:D58,3,FALSE),VLOOKUP(R25,E22:G58,3,FALSE),VLOOKUP(R25,H22:J58,3,FALSE),VLOOKUP(R25,K22:M58,3,FALSE),VLOOKUP(R25,N22:P58,3,FALSE))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26">
+        <f>AVERAGE(VLOOKUP(R26,B22:D58,3,FALSE),VLOOKUP(R26,E22:G58,3,FALSE),VLOOKUP(R26,H22:J58,3,FALSE),VLOOKUP(R26,K22:M58,3,FALSE),VLOOKUP(R26,N22:P58,3,FALSE))</f>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27">
+        <v>7.17E-2</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27">
+        <f>AVERAGE(VLOOKUP(R27,B22:D58,3,FALSE),VLOOKUP(R27,E22:G58,3,FALSE),VLOOKUP(R27,H22:J58,3,FALSE),VLOOKUP(R27,K22:M58,3,FALSE),VLOOKUP(R27,N22:P58,3,FALSE))</f>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28" t="s">
+        <v>58</v>
+      </c>
+      <c r="O28">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="R28" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28">
+        <f>AVERAGE(VLOOKUP(R28,B22:D58,3,FALSE),VLOOKUP(R28,E22:G58,3,FALSE),VLOOKUP(R28,H22:J58,3,FALSE),VLOOKUP(R28,K22:M58,3,FALSE),VLOOKUP(R28,N22:P58,3,FALSE))</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>5.21E-2</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="R29" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29">
+        <f>AVERAGE(VLOOKUP(R29,B22:D58,3,FALSE),VLOOKUP(R29,E22:G58,3,FALSE),VLOOKUP(R29,H22:J58,3,FALSE),VLOOKUP(R29,K22:M58,3,FALSE),VLOOKUP(R29,N22:P58,3,FALSE))</f>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="M30">
+        <v>9</v>
+      </c>
+      <c r="N30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="P30">
+        <v>9</v>
+      </c>
+      <c r="R30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S30">
+        <f>AVERAGE(VLOOKUP(R30,B22:D58,3,FALSE),VLOOKUP(R30,E22:G58,3,FALSE),VLOOKUP(R30,H22:J58,3,FALSE),VLOOKUP(R23,K22:M58,3,FALSE),VLOOKUP(R30,N22:P58,3,FALSE))</f>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="R31" t="s">
+        <v>44</v>
+      </c>
+      <c r="S31">
+        <f>AVERAGE(VLOOKUP(R31,B22:D58,3,FALSE),VLOOKUP(R31,E22:G58,3,FALSE),VLOOKUP(R31,H22:J58,3,FALSE),VLOOKUP(R31,K22:M58,3,FALSE),VLOOKUP(R31,N22:P58,3,FALSE))</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="J32">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="M32">
+        <v>11</v>
+      </c>
+      <c r="N32" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32">
+        <v>3.15E-2</v>
+      </c>
+      <c r="P32">
+        <v>11</v>
+      </c>
+      <c r="R32" t="s">
+        <v>45</v>
+      </c>
+      <c r="S32">
+        <f>AVERAGE(VLOOKUP(R32,B22:D58,3,FALSE),VLOOKUP(R32,E22:G58,3,FALSE),VLOOKUP(R32,H22:J58,3,FALSE),VLOOKUP(R32,K22:M58,3,FALSE),VLOOKUP(R32,N22:P58,3,FALSE))</f>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="K33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="M33">
+        <v>12</v>
+      </c>
+      <c r="N33" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="P33">
+        <v>12</v>
+      </c>
+      <c r="R33" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33">
+        <f>AVERAGE(VLOOKUP(R33,B22:D58,3,FALSE),VLOOKUP(R33,E22:G58,3,FALSE),VLOOKUP(R33,H22:J58,3,FALSE),VLOOKUP(R33,K22:M58,3,FALSE),VLOOKUP(R33,N22:P58,3,FALSE))</f>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34">
+        <v>2.92E-2</v>
+      </c>
+      <c r="G34">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34">
+        <v>2.87E-2</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="M34">
+        <v>13</v>
+      </c>
+      <c r="N34" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="P34">
+        <v>13</v>
+      </c>
+      <c r="R34" t="s">
+        <v>46</v>
+      </c>
+      <c r="S34">
+        <f>AVERAGE(VLOOKUP(R34,B22:D58,3,FALSE),VLOOKUP(R34,E22:G58,3,FALSE),VLOOKUP(R34,H22:J58,3,FALSE),VLOOKUP(R34,K22:M58,3,FALSE),VLOOKUP(R34,N22:P58,3,FALSE))</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="G35">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="J35">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35">
+        <v>2.53E-2</v>
+      </c>
+      <c r="M35">
+        <v>14</v>
+      </c>
+      <c r="N35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O35">
+        <v>2.81E-2</v>
+      </c>
+      <c r="P35">
+        <v>14</v>
+      </c>
+      <c r="R35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S35">
+        <f>AVERAGE(VLOOKUP(R35,B22:D58,3,FALSE),VLOOKUP(R35,E22:G58,3,FALSE),VLOOKUP(R35,H22:J58,3,FALSE),VLOOKUP(R35,K22:M58,3,FALSE),VLOOKUP(R35,N22:P58,3,FALSE))</f>
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="J36">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="M36">
+        <v>15</v>
+      </c>
+      <c r="N36" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="P36">
+        <v>15</v>
+      </c>
+      <c r="R36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36">
+        <f>AVERAGE(VLOOKUP(R36,B22:D58,3,FALSE),VLOOKUP(R36,E22:G58,3,FALSE),VLOOKUP(R36,H22:J58,3,FALSE),VLOOKUP(R36,K22:M58,3,FALSE),VLOOKUP(R36,N22:P58,3,FALSE))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37">
+        <v>2.47E-2</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M37">
+        <v>16</v>
+      </c>
+      <c r="N37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="P37">
+        <v>16</v>
+      </c>
+      <c r="R37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37">
+        <f>AVERAGE(VLOOKUP(R37,B22:D58,3,FALSE),VLOOKUP(R37,E22:G58,3,FALSE),VLOOKUP(R37,H22:J58,3,FALSE),VLOOKUP(R37,K22:M58,3,FALSE),VLOOKUP(R37,N22:P58,3,FALSE))</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G38">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38">
+        <v>1.06E-2</v>
+      </c>
+      <c r="M38">
+        <v>17</v>
+      </c>
+      <c r="N38" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="P38">
+        <v>17</v>
+      </c>
+      <c r="R38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38">
+        <f>AVERAGE(VLOOKUP(R38,B22:D58,3,FALSE),VLOOKUP(R38,E22:G58,3,FALSE),VLOOKUP(R38,H22:J58,3,FALSE),VLOOKUP(R38,K22:M58,3,FALSE),VLOOKUP(R38,N22:P58,3,FALSE))</f>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="G39">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>16</v>
+      </c>
+      <c r="K39" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="M39">
+        <v>18</v>
+      </c>
+      <c r="N39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="P39">
+        <v>18</v>
+      </c>
+      <c r="R39" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39">
+        <f>AVERAGE(VLOOKUP(R39,B22:D58,3,FALSE),VLOOKUP(R39,E22:G58,3,FALSE),VLOOKUP(R39,H22:J58,3,FALSE),VLOOKUP(R39,K22:M58,3,FALSE),VLOOKUP(R39,N22:P58,3,FALSE))</f>
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>2.07E-2</v>
+      </c>
+      <c r="G40">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="M40">
+        <v>19</v>
+      </c>
+      <c r="N40" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="P40">
+        <v>19</v>
+      </c>
+      <c r="R40" t="s">
+        <v>24</v>
+      </c>
+      <c r="S40">
+        <f>AVERAGE(VLOOKUP(R40,B22:D58,3,FALSE),VLOOKUP(R40,E22:G58,3,FALSE),VLOOKUP(R40,H22:J58,3,FALSE),VLOOKUP(R40,K22:M58,3,FALSE),VLOOKUP(R40,N22:P58,3,FALSE))</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41" t="s">
+        <v>15</v>
+      </c>
+      <c r="O41">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="P41">
+        <v>20</v>
+      </c>
+      <c r="R41" t="s">
+        <v>28</v>
+      </c>
+      <c r="S41">
+        <f>AVERAGE(VLOOKUP(R41,B22:D58,3,FALSE),VLOOKUP(R41,E22:G58,3,FALSE),VLOOKUP(R41,H22:J58,3,FALSE),VLOOKUP(R41,K22:M58,3,FALSE),VLOOKUP(R41,N22:P58,3,FALSE))</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="G42">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>21</v>
+      </c>
+      <c r="N42" t="s">
+        <v>60</v>
+      </c>
+      <c r="O42">
+        <v>1.04E-2</v>
+      </c>
+      <c r="P42">
+        <v>21</v>
+      </c>
+      <c r="R42" t="s">
+        <v>15</v>
+      </c>
+      <c r="S42">
+        <f>AVERAGE(VLOOKUP(R42,B22:D58,3,FALSE),VLOOKUP(R42,E22:G58,3,FALSE),VLOOKUP(R42,H22:J58,3,FALSE),VLOOKUP(R42,K22:M58,3,FALSE),VLOOKUP(R42,N22:P58,3,FALSE))</f>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G43">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>21</v>
+      </c>
+      <c r="N43" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43">
+        <v>1.03E-2</v>
+      </c>
+      <c r="P43">
+        <v>22</v>
+      </c>
+      <c r="R43" t="s">
+        <v>13</v>
+      </c>
+      <c r="S43">
+        <f>AVERAGE(VLOOKUP(R43,B22:D58,3,FALSE),VLOOKUP(R43,E22:G58,3,FALSE),VLOOKUP(R43,H22:J58,3,FALSE),VLOOKUP(R43,K22:M58,3,FALSE),VLOOKUP(R43,N22:P58,3,FALSE))</f>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>23</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>21</v>
+      </c>
+      <c r="N44" t="s">
+        <v>49</v>
+      </c>
+      <c r="O44">
+        <v>0.01</v>
+      </c>
+      <c r="P44">
+        <v>23</v>
+      </c>
+      <c r="R44" t="s">
+        <v>18</v>
+      </c>
+      <c r="S44">
+        <f>AVERAGE(VLOOKUP(R44,B22:D58,3,FALSE),VLOOKUP(R44,E22:G58,3,FALSE),VLOOKUP(R44,H22:J58,3,FALSE),VLOOKUP(R44,K22:M58,3,FALSE),VLOOKUP(R44,N22:P58,3,FALSE))</f>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>23</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>16</v>
+      </c>
+      <c r="K45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="P45">
+        <v>24</v>
+      </c>
+      <c r="R45" t="s">
+        <v>48</v>
+      </c>
+      <c r="S45">
+        <f>AVERAGE(VLOOKUP(R45,B22:D58,3,FALSE),VLOOKUP(R45,E22:G58,3,FALSE),VLOOKUP(R45,H22:J58,3,FALSE),VLOOKUP(R45,K22:M58,3,FALSE),VLOOKUP(R45,N22:P58,3,FALSE))</f>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>23</v>
+      </c>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>21</v>
+      </c>
+      <c r="N46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O46">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="P46">
+        <v>25</v>
+      </c>
+      <c r="R46" t="s">
+        <v>49</v>
+      </c>
+      <c r="S46">
+        <f>AVERAGE(VLOOKUP(R46,B22:D58,3,FALSE),VLOOKUP(R46,E22:G58,3,FALSE),VLOOKUP(R46,H22:J58,3,FALSE),VLOOKUP(R46,K22:M58,3,FALSE),VLOOKUP(R46,N22:P58,3,FALSE))</f>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>21</v>
+      </c>
+      <c r="N47" t="s">
+        <v>43</v>
+      </c>
+      <c r="O47">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="P47">
+        <v>26</v>
+      </c>
+      <c r="R47" t="s">
+        <v>50</v>
+      </c>
+      <c r="S47">
+        <f>AVERAGE(VLOOKUP(R47,B22:D58,3,FALSE),VLOOKUP(R47,E22:G58,3,FALSE),VLOOKUP(R47,H22:J58,3,FALSE),VLOOKUP(R47,K22:M58,3,FALSE),VLOOKUP(R47,N22:P58,3,FALSE))</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>23</v>
+      </c>
+      <c r="H48" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
+        <v>56</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48" t="s">
+        <v>17</v>
+      </c>
+      <c r="O48">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="P48">
+        <v>27</v>
+      </c>
+      <c r="R48" t="s">
+        <v>51</v>
+      </c>
+      <c r="S48">
+        <f>AVERAGE(VLOOKUP(R48,B22:D58,3,FALSE),VLOOKUP(R48,E22:G58,3,FALSE),VLOOKUP(R48,H22:J58,3,FALSE),VLOOKUP(R48,K22:M58,3,FALSE),VLOOKUP(R48,N22:P58,3,FALSE))</f>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>16</v>
+      </c>
+      <c r="K49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>21</v>
+      </c>
+      <c r="N49" t="s">
+        <v>46</v>
+      </c>
+      <c r="O49">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="P49">
+        <v>28</v>
+      </c>
+      <c r="R49" t="s">
+        <v>52</v>
+      </c>
+      <c r="S49">
+        <f>AVERAGE(VLOOKUP(R49,B22:D58,3,FALSE),VLOOKUP(R49,E22:G58,3,FALSE),VLOOKUP(R49,H22:J58,3,FALSE),VLOOKUP(R49,K22:M58,3,FALSE),VLOOKUP(R49,N22:P58,3,FALSE))</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>23</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>21</v>
+      </c>
+      <c r="N50" t="s">
+        <v>42</v>
+      </c>
+      <c r="O50">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="P50">
+        <v>29</v>
+      </c>
+      <c r="R50" t="s">
+        <v>53</v>
+      </c>
+      <c r="S50">
+        <f>AVERAGE(VLOOKUP(R50,B22:D58,3,FALSE),VLOOKUP(R50,E22:G58,3,FALSE),VLOOKUP(R50,H22:J58,3,FALSE),VLOOKUP(R50,K22:M58,3,FALSE),VLOOKUP(R50,N22:P58,3,FALSE))</f>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>23</v>
+      </c>
+      <c r="H51" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>16</v>
+      </c>
+      <c r="K51" t="s">
+        <v>48</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>21</v>
+      </c>
+      <c r="N51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="P51">
+        <v>30</v>
+      </c>
+      <c r="R51" t="s">
+        <v>54</v>
+      </c>
+      <c r="S51">
+        <f>AVERAGE(VLOOKUP(R23,B22:D58,3,FALSE),VLOOKUP(R23,E22:G58,3,FALSE),VLOOKUP(R23,H22:J58,3,FALSE),VLOOKUP(R23,K22:M58,3,FALSE),VLOOKUP(R23,N22:P58,3,FALSE))</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>23</v>
+      </c>
+      <c r="H52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>45</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>21</v>
+      </c>
+      <c r="N52" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="P52">
+        <v>31</v>
+      </c>
+      <c r="R52" t="s">
+        <v>55</v>
+      </c>
+      <c r="S52">
+        <f>AVERAGE(VLOOKUP(R52,B22:D58,3,FALSE),VLOOKUP(R52,E22:G58,3,FALSE),VLOOKUP(R52,H22:J58,3,FALSE),VLOOKUP(R52,K22:M58,3,FALSE),VLOOKUP(R52,N22:P58,3,FALSE))</f>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>32</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>23</v>
+      </c>
+      <c r="H53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>16</v>
+      </c>
+      <c r="K53" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>21</v>
+      </c>
+      <c r="N53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53">
+        <v>3.3E-3</v>
+      </c>
+      <c r="P53">
+        <v>32</v>
+      </c>
+      <c r="R53" t="s">
+        <v>56</v>
+      </c>
+      <c r="S53">
+        <f>AVERAGE(VLOOKUP(R53,B22:D58,3,FALSE),VLOOKUP(R53,E22:G58,3,FALSE),VLOOKUP(R53,H22:J58,3,FALSE),VLOOKUP(R53,K22:M58,3,FALSE),VLOOKUP(R53,N22:P58,3,FALSE))</f>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>23</v>
+      </c>
+      <c r="H54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>16</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>21</v>
+      </c>
+      <c r="N54" t="s">
+        <v>57</v>
+      </c>
+      <c r="O54">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="P54">
+        <v>33</v>
+      </c>
+      <c r="R54" t="s">
+        <v>57</v>
+      </c>
+      <c r="S54">
+        <f>AVERAGE(VLOOKUP(R54,B22:D58,3,FALSE),VLOOKUP(R54,E22:G58,3,FALSE),VLOOKUP(R54,H22:J58,3,FALSE),VLOOKUP(R54,K22:M58,3,FALSE),VLOOKUP(R54,N22:P58,3,FALSE))</f>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>23</v>
+      </c>
+      <c r="H55" t="s">
+        <v>58</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>16</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>21</v>
+      </c>
+      <c r="N55" t="s">
+        <v>50</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>34</v>
+      </c>
+      <c r="R55" t="s">
+        <v>58</v>
+      </c>
+      <c r="S55">
+        <f>AVERAGE(VLOOKUP(R55,B22:D58,3,FALSE),VLOOKUP(R55,E22:G58,3,FALSE),VLOOKUP(R55,H22:J58,3,FALSE),VLOOKUP(R55,K22:M58,3,FALSE),VLOOKUP(R55,N22:P58,3,FALSE))</f>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>23</v>
+      </c>
+      <c r="H56" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>16</v>
+      </c>
+      <c r="K56" t="s">
+        <v>51</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>21</v>
+      </c>
+      <c r="N56" t="s">
+        <v>52</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>34</v>
+      </c>
+      <c r="R56" t="s">
+        <v>59</v>
+      </c>
+      <c r="S56">
+        <f>AVERAGE(VLOOKUP(R56,B22:D58,3,FALSE),VLOOKUP(R56,E22:G58,3,FALSE),VLOOKUP(R56,H22:J58,3,FALSE),VLOOKUP(R56,K22:M58,3,FALSE),VLOOKUP(R56,N22:P58,3,FALSE))</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>23</v>
+      </c>
+      <c r="H57" t="s">
+        <v>60</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>16</v>
+      </c>
+      <c r="K57" t="s">
+        <v>50</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>21</v>
+      </c>
+      <c r="N57" t="s">
+        <v>59</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>34</v>
+      </c>
+      <c r="R57" t="s">
+        <v>60</v>
+      </c>
+      <c r="S57">
+        <f>AVERAGE(VLOOKUP(R57,B22:D58,3,FALSE),VLOOKUP(R57,E22:G58,3,FALSE),VLOOKUP(R57,H22:J58,3,FALSE),VLOOKUP(R57,K22:M58,3,FALSE),VLOOKUP(R57,N22:P58,3,FALSE))</f>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>23</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>16</v>
+      </c>
+      <c r="K58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>21</v>
+      </c>
+      <c r="N58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>34</v>
+      </c>
+      <c r="R58" t="s">
+        <v>25</v>
+      </c>
+      <c r="S58">
+        <f>AVERAGE(VLOOKUP(R58,B22:D58,3,FALSE),VLOOKUP(R58,E22:G58,3,FALSE),VLOOKUP(R58,H22:J58,3,FALSE),VLOOKUP(R58,K22:M58,3,FALSE),VLOOKUP(R58,N22:P58,3,FALSE))</f>
+        <v>17.600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -975,10 +3243,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:Q21"/>
+  <dimension ref="A7:S43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:Q21"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1297,7 +3565,7 @@
         <v>0.4667</v>
       </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -1323,7 +3591,7 @@
         <v>0.81479999999999997</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D18" s="1">
         <f>AVERAGE(D8:D17)</f>
         <v>0.83097999999999994</v>
@@ -1363,7 +3631,7 @@
         <v>0.37918000000000002</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D19" s="1">
         <f>_xlfn.STDEV.S(D8:D17)</f>
         <v>1.607877482894763E-2</v>
@@ -1403,14 +3671,14 @@
         <v>0.83861999999999992</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <f>_xlfn.STDEV.S(E8,E10,E12,E14,E16)</f>
+        <f t="shared" ref="E20:G21" si="2">_xlfn.STDEV.S(E8,E10,E12,E14,E16)</f>
         <v>3.4858026335408056E-2</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ref="F20:G21" si="2">_xlfn.STDEV.S(F8,F10,F12,F14,F16)</f>
+        <f t="shared" si="2"/>
         <v>4.4024288750643077E-2</v>
       </c>
       <c r="G20" s="1">
@@ -1425,11 +3693,11 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1">
-        <f>_xlfn.STDEV.S(O8,O10,O12,O14,O16)</f>
+        <f t="shared" ref="O20:Q21" si="3">_xlfn.STDEV.S(O8,O10,O12,O14,O16)</f>
         <v>0.12872480335972547</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" ref="P20:Q21" si="3">_xlfn.STDEV.S(P8,P10,P12,P14,P16)</f>
+        <f t="shared" si="3"/>
         <v>0.1863390324113551</v>
       </c>
       <c r="Q20" s="1">
@@ -1437,10 +3705,10 @@
         <v>0.16265889769699043</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D21" s="1"/>
       <c r="E21" s="1">
-        <f>_xlfn.STDEV.S(E9,E11,E13,E15,E17)</f>
+        <f t="shared" si="2"/>
         <v>1.0670520137275423E-2</v>
       </c>
       <c r="F21" s="1">
@@ -1459,7 +3727,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1">
-        <f>_xlfn.STDEV.S(O9,O11,O13,O15,O17)</f>
+        <f t="shared" si="3"/>
         <v>4.9057384765191052E-2</v>
       </c>
       <c r="P21" s="1">
@@ -1469,6 +3737,1162 @@
       <c r="Q21" s="1">
         <f t="shared" si="3"/>
         <v>0.10566398156420251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>0.1429</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25">
+        <f>AVERAGE(VLOOKUP(R25,B25:D43,3,FALSE),VLOOKUP(R25,E25:G43,3,FALSE),VLOOKUP(R25,H25:J43,3,FALSE),VLOOKUP(R25,K25:M43,3,FALSE),VLOOKUP(R25,N25:P43,3,FALSE))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26">
+        <v>0.1326</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26">
+        <v>0.1166</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26">
+        <v>0.1195</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26">
+        <v>0.1159</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="R26" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26">
+        <f>AVERAGE(VLOOKUP(R26,B25:D61,3,FALSE),VLOOKUP(R26,E25:G61,3,FALSE),VLOOKUP(R26,H25:J61,3,FALSE),VLOOKUP(R26,K25:M61,3,FALSE),VLOOKUP(R26,N25:P61,3,FALSE))</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>0.1007</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27">
+        <v>0.114</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27">
+        <v>0.1193</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>58</v>
+      </c>
+      <c r="O27">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s">
+        <v>56</v>
+      </c>
+      <c r="S27">
+        <f>AVERAGE(VLOOKUP(R27,B25:D61,3,FALSE),VLOOKUP(R27,E25:G61,3,FALSE),VLOOKUP(R27,H25:J61,3,FALSE),VLOOKUP(R27,K25:M61,3,FALSE),VLOOKUP(R27,N25:P61,3,FALSE))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28">
+        <v>0.1173</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>57</v>
+      </c>
+      <c r="O28">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28">
+        <f>AVERAGE(VLOOKUP(R28,B25:D61,3,FALSE),VLOOKUP(R28,E25:G61,3,FALSE),VLOOKUP(R28,H25:J61,3,FALSE),VLOOKUP(R28,K25:M61,3,FALSE),VLOOKUP(R28,N25:P61,3,FALSE))</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="P29">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s">
+        <v>46</v>
+      </c>
+      <c r="S29">
+        <f>AVERAGE(VLOOKUP(R29,B25:D61,3,FALSE),VLOOKUP(R29,E25:G61,3,FALSE),VLOOKUP(R29,H25:J61,3,FALSE),VLOOKUP(R29,K25:M61,3,FALSE),VLOOKUP(R29,N25:P61,3,FALSE))</f>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30">
+        <v>9.11E-2</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="P30">
+        <v>6</v>
+      </c>
+      <c r="R30" t="s">
+        <v>49</v>
+      </c>
+      <c r="S30">
+        <f>AVERAGE(VLOOKUP(R30,B25:D61,3,FALSE),VLOOKUP(R30,E25:G61,3,FALSE),VLOOKUP(R30,H25:J61,3,FALSE),VLOOKUP(R30,K25:M61,3,FALSE),VLOOKUP(R30,N25:P61,3,FALSE))</f>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+      <c r="N31" t="s">
+        <v>49</v>
+      </c>
+      <c r="O31">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="P31">
+        <v>7</v>
+      </c>
+      <c r="R31" t="s">
+        <v>54</v>
+      </c>
+      <c r="S31">
+        <f>AVERAGE(VLOOKUP(R31,B25:D61,3,FALSE),VLOOKUP(R31,E25:G61,3,FALSE),VLOOKUP(R31,H25:J61,3,FALSE),VLOOKUP(R31,K25:M61,3,FALSE),VLOOKUP(R31,N25:P61,3,FALSE))</f>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32">
+        <v>5.21E-2</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32" t="s">
+        <v>47</v>
+      </c>
+      <c r="O32">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="P32">
+        <v>8</v>
+      </c>
+      <c r="R32" t="s">
+        <v>55</v>
+      </c>
+      <c r="S32">
+        <f>AVERAGE(VLOOKUP(R32,B25:D61,3,FALSE),VLOOKUP(R32,E25:G61,3,FALSE),VLOOKUP(R32,H25:J61,3,FALSE),VLOOKUP(R32,K25:M61,3,FALSE),VLOOKUP(R32,N25:P61,3,FALSE))</f>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>5.62E-2</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="M33">
+        <v>9</v>
+      </c>
+      <c r="N33" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="P33">
+        <v>9</v>
+      </c>
+      <c r="R33" t="s">
+        <v>58</v>
+      </c>
+      <c r="S33">
+        <f>AVERAGE(VLOOKUP(R33,B25:D61,3,FALSE),VLOOKUP(R33,E25:G61,3,FALSE),VLOOKUP(R33,H25:J61,3,FALSE),VLOOKUP(R26,K25:M61,3,FALSE),VLOOKUP(R33,N25:P61,3,FALSE))</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34">
+        <v>4.48E-2</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34" t="s">
+        <v>43</v>
+      </c>
+      <c r="O34">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="P34">
+        <v>10</v>
+      </c>
+      <c r="R34" t="s">
+        <v>45</v>
+      </c>
+      <c r="S34">
+        <f>AVERAGE(VLOOKUP(R34,B25:D61,3,FALSE),VLOOKUP(R34,E25:G61,3,FALSE),VLOOKUP(R34,H25:J61,3,FALSE),VLOOKUP(R34,K25:M61,3,FALSE),VLOOKUP(R34,N25:P61,3,FALSE))</f>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="J35">
+        <v>11</v>
+      </c>
+      <c r="K35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="M35">
+        <v>11</v>
+      </c>
+      <c r="N35" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35">
+        <v>4.58E-2</v>
+      </c>
+      <c r="P35">
+        <v>11</v>
+      </c>
+      <c r="R35" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35">
+        <f>AVERAGE(VLOOKUP(R35,B25:D61,3,FALSE),VLOOKUP(R35,E25:G61,3,FALSE),VLOOKUP(R35,H25:J61,3,FALSE),VLOOKUP(R35,K25:M61,3,FALSE),VLOOKUP(R35,N25:P61,3,FALSE))</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="J36">
+        <v>12</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="M36">
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="P36">
+        <v>12</v>
+      </c>
+      <c r="R36" t="s">
+        <v>51</v>
+      </c>
+      <c r="S36">
+        <f>AVERAGE(VLOOKUP(R36,B25:D61,3,FALSE),VLOOKUP(R36,E25:G61,3,FALSE),VLOOKUP(R36,H25:J61,3,FALSE),VLOOKUP(R36,K25:M61,3,FALSE),VLOOKUP(R36,N25:P61,3,FALSE))</f>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="G37">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J37">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="M37">
+        <v>13</v>
+      </c>
+      <c r="N37" t="s">
+        <v>51</v>
+      </c>
+      <c r="O37">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="P37">
+        <v>13</v>
+      </c>
+      <c r="R37" t="s">
+        <v>42</v>
+      </c>
+      <c r="S37">
+        <f>AVERAGE(VLOOKUP(R37,B25:D61,3,FALSE),VLOOKUP(R37,E25:G61,3,FALSE),VLOOKUP(R37,H25:J61,3,FALSE),VLOOKUP(R37,K25:M61,3,FALSE),VLOOKUP(R37,N25:P61,3,FALSE))</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="J38">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38">
+        <v>1.41E-2</v>
+      </c>
+      <c r="M38">
+        <v>14</v>
+      </c>
+      <c r="N38" t="s">
+        <v>54</v>
+      </c>
+      <c r="O38">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P38">
+        <v>14</v>
+      </c>
+      <c r="R38" t="s">
+        <v>60</v>
+      </c>
+      <c r="S38">
+        <f>AVERAGE(VLOOKUP(R38,B25:D61,3,FALSE),VLOOKUP(R38,E25:G61,3,FALSE),VLOOKUP(R38,H25:J61,3,FALSE),VLOOKUP(R38,K25:M61,3,FALSE),VLOOKUP(R38,N25:P61,3,FALSE))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="J39">
+        <v>15</v>
+      </c>
+      <c r="K39" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="M39">
+        <v>15</v>
+      </c>
+      <c r="N39" t="s">
+        <v>46</v>
+      </c>
+      <c r="O39">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="P39">
+        <v>15</v>
+      </c>
+      <c r="R39" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39">
+        <f>AVERAGE(VLOOKUP(R39,B25:D61,3,FALSE),VLOOKUP(R39,E25:G61,3,FALSE),VLOOKUP(R39,H25:J61,3,FALSE),VLOOKUP(R39,K25:M61,3,FALSE),VLOOKUP(R39,N25:P61,3,FALSE))</f>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40">
+        <v>1.29E-2</v>
+      </c>
+      <c r="G40">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40">
+        <v>1.29E-2</v>
+      </c>
+      <c r="J40">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="M40">
+        <v>16</v>
+      </c>
+      <c r="N40" t="s">
+        <v>52</v>
+      </c>
+      <c r="O40">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="P40">
+        <v>16</v>
+      </c>
+      <c r="R40" t="s">
+        <v>53</v>
+      </c>
+      <c r="S40">
+        <f>AVERAGE(VLOOKUP(R40,B25:D61,3,FALSE),VLOOKUP(R40,E25:G61,3,FALSE),VLOOKUP(R40,H25:J61,3,FALSE),VLOOKUP(R40,K25:M61,3,FALSE),VLOOKUP(R40,N25:P61,3,FALSE))</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="G41">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="J41">
+        <v>17</v>
+      </c>
+      <c r="K41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>17</v>
+      </c>
+      <c r="N41" t="s">
+        <v>59</v>
+      </c>
+      <c r="O41">
+        <v>1.35E-2</v>
+      </c>
+      <c r="P41">
+        <v>17</v>
+      </c>
+      <c r="R41" t="s">
+        <v>59</v>
+      </c>
+      <c r="S41">
+        <f>AVERAGE(VLOOKUP(R41,B25:D61,3,FALSE),VLOOKUP(R41,E25:G61,3,FALSE),VLOOKUP(R41,H25:J61,3,FALSE),VLOOKUP(R41,K25:M61,3,FALSE),VLOOKUP(R41,N25:P61,3,FALSE))</f>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G42">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>18</v>
+      </c>
+      <c r="K42" t="s">
+        <v>59</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>17</v>
+      </c>
+      <c r="N42" t="s">
+        <v>50</v>
+      </c>
+      <c r="O42">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="P42">
+        <v>18</v>
+      </c>
+      <c r="R42" t="s">
+        <v>52</v>
+      </c>
+      <c r="S42">
+        <f>AVERAGE(VLOOKUP(R42,B25:D61,3,FALSE),VLOOKUP(R42,E25:G61,3,FALSE),VLOOKUP(R42,H25:J61,3,FALSE),VLOOKUP(R42,K25:M61,3,FALSE),VLOOKUP(R42,N25:P61,3,FALSE))</f>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>17</v>
+      </c>
+      <c r="N43" t="s">
+        <v>60</v>
+      </c>
+      <c r="O43">
+        <v>2E-3</v>
+      </c>
+      <c r="P43">
+        <v>19</v>
+      </c>
+      <c r="R43" t="s">
+        <v>50</v>
+      </c>
+      <c r="S43">
+        <f>AVERAGE(VLOOKUP(R43,B25:D61,3,FALSE),VLOOKUP(R43,E25:G61,3,FALSE),VLOOKUP(R43,H25:J61,3,FALSE),VLOOKUP(R43,K25:M61,3,FALSE),VLOOKUP(R43,N25:P61,3,FALSE))</f>
+        <v>17.399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1479,10 +4903,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T43"/>
+  <dimension ref="A3:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:Q23"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1511,16 +4935,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -1528,16 +4952,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -1545,16 +4969,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -1562,16 +4986,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -1824,7 +5248,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -1850,7 +5274,7 @@
         <v>0.88890000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1888,7 +5312,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -1914,9 +5338,9 @@
         <v>0.81479999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1">
         <f>AVERAGE(D10:D19)</f>
@@ -1957,9 +5381,9 @@
         <v>0.51916000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1">
         <f>_xlfn.STDEV.S(D10:D19)</f>
@@ -2000,14 +5424,14 @@
         <v>0.87540000000000018</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <f>_xlfn.STDEV.S(E10,E12,E14,E16,E18)</f>
+        <f t="shared" ref="E22:G23" si="2">_xlfn.STDEV.S(E10,E12,E14,E16,E18)</f>
         <v>7.4470410231178383E-2</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ref="F22:G23" si="2">_xlfn.STDEV.S(F10,F12,F14,F16,F18)</f>
+        <f t="shared" si="2"/>
         <v>7.5124962562386668E-2</v>
       </c>
       <c r="G22" s="1">
@@ -2022,11 +5446,11 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1">
-        <f>_xlfn.STDEV.S(O10,O12,O14,O16,O18)</f>
+        <f t="shared" ref="O22:Q23" si="3">_xlfn.STDEV.S(O10,O12,O14,O16,O18)</f>
         <v>9.4784297222693353E-2</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" ref="P22:Q23" si="3">_xlfn.STDEV.S(P10,P12,P14,P16,P18)</f>
+        <f t="shared" si="3"/>
         <v>0.107129211702505</v>
       </c>
       <c r="Q22" s="1">
@@ -2034,10 +5458,10 @@
         <v>0.12119962046145168</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D23" s="1"/>
       <c r="E23" s="1">
-        <f>_xlfn.STDEV.S(E11,E13,E15,E17,E19)</f>
+        <f t="shared" si="2"/>
         <v>3.3281105750861094E-2</v>
       </c>
       <c r="F23" s="1">
@@ -2056,7 +5480,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1">
-        <f>_xlfn.STDEV.S(O11,O13,O15,O17,O19)</f>
+        <f t="shared" si="3"/>
         <v>3.1401066860856808E-2</v>
       </c>
       <c r="P23" s="1">
@@ -2068,1176 +5492,1106 @@
         <v>6.0470281957338348E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>1</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2">
+      <c r="G24">
         <v>3</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2">
+      <c r="J24">
         <v>4</v>
       </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="M24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="M25" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>0.161</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="D26">
-        <v>0.161</v>
-      </c>
-      <c r="E26">
+      <c r="F26">
+        <v>0.2429</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
-      <c r="F26">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26">
-        <v>0.2429</v>
+      <c r="H26" t="s">
+        <v>21</v>
       </c>
       <c r="I26">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="J26">
         <v>1</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
       </c>
       <c r="K26" t="s">
         <v>22</v>
       </c>
       <c r="L26">
-        <v>0.15709999999999999</v>
+        <v>0.15640000000000001</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="N26">
-        <v>13</v>
-      </c>
-      <c r="O26" t="s">
-        <v>23</v>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <v>0.1656</v>
       </c>
       <c r="P26">
-        <v>0.15640000000000001</v>
-      </c>
-      <c r="Q26">
         <v>1</v>
       </c>
-      <c r="R26">
-        <v>13</v>
-      </c>
-      <c r="S26" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26">
-        <v>0.16980000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R26" t="s">
+        <v>12</v>
+      </c>
+      <c r="S26">
+        <f>AVERAGE(VLOOKUP(R26,B26:D44,3,FALSE),VLOOKUP(R26,E26:G44,3,FALSE),VLOOKUP(R26,H26:J44,3,FALSE),VLOOKUP(R26,K26:M44,3,FALSE),VLOOKUP(R26,N26:P44,3,FALSE))</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>0.1552</v>
       </c>
       <c r="D27">
-        <v>0.1552</v>
-      </c>
-      <c r="E27">
         <v>2</v>
       </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
       <c r="F27">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27">
         <v>0.18970000000000001</v>
       </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
       <c r="I27">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="J27">
         <v>2</v>
       </c>
-      <c r="J27">
+      <c r="K27" t="s">
         <v>13</v>
       </c>
-      <c r="K27" t="s">
-        <v>23</v>
-      </c>
       <c r="L27">
-        <v>0.13239999999999999</v>
+        <v>0.14219999999999999</v>
       </c>
       <c r="M27">
         <v>2</v>
       </c>
-      <c r="N27">
-        <v>16</v>
-      </c>
-      <c r="O27" t="s">
-        <v>14</v>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27">
+        <v>0.1075</v>
       </c>
       <c r="P27">
-        <v>0.14219999999999999</v>
-      </c>
-      <c r="Q27">
         <v>2</v>
       </c>
-      <c r="R27">
-        <v>3</v>
-      </c>
-      <c r="S27" t="s">
-        <v>15</v>
-      </c>
-      <c r="T27">
-        <v>0.1333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27">
+        <f>AVERAGE(VLOOKUP(R27,B26:D62,3,FALSE),VLOOKUP(R27,E26:G62,3,FALSE),VLOOKUP(R27,H26:J62,3,FALSE),VLOOKUP(R27,K26:M62,3,FALSE),VLOOKUP(R27,N26:P62,3,FALSE))</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>0.1517</v>
+      </c>
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28">
-        <v>0.1517</v>
-      </c>
-      <c r="E28">
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G28">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28">
-        <v>0.16900000000000001</v>
+      <c r="H28" t="s">
+        <v>12</v>
       </c>
       <c r="I28">
+        <v>0.1285</v>
+      </c>
+      <c r="J28">
         <v>3</v>
       </c>
-      <c r="J28">
-        <v>17</v>
-      </c>
       <c r="K28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L28">
-        <v>0.1285</v>
+        <v>0.1226</v>
       </c>
       <c r="M28">
         <v>3</v>
       </c>
-      <c r="N28">
-        <v>5</v>
-      </c>
-      <c r="O28" t="s">
-        <v>17</v>
+      <c r="N28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28">
+        <v>0.1057</v>
       </c>
       <c r="P28">
-        <v>0.1226</v>
-      </c>
-      <c r="Q28">
         <v>3</v>
       </c>
-      <c r="R28">
-        <v>16</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="R28" t="s">
         <v>14</v>
       </c>
-      <c r="T28">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S28">
+        <f>AVERAGE(VLOOKUP(R28,B26:D62,3,FALSE),VLOOKUP(R28,E26:G62,3,FALSE),VLOOKUP(R28,H26:J62,3,FALSE),VLOOKUP(R28,K26:M62,3,FALSE),VLOOKUP(R28,N26:P62,3,FALSE))</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>0.1048</v>
       </c>
       <c r="D29">
-        <v>0.1048</v>
-      </c>
-      <c r="E29">
         <v>4</v>
       </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
       <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29">
         <v>0.15429999999999999</v>
       </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
       <c r="I29">
-        <v>4</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="J29">
         <v>4</v>
       </c>
       <c r="K29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L29">
-        <v>6.9500000000000006E-2</v>
+        <v>0.11210000000000001</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
-      <c r="N29">
-        <v>9</v>
-      </c>
-      <c r="O29" t="s">
-        <v>24</v>
+      <c r="N29" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29">
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="P29">
-        <v>0.11210000000000001</v>
-      </c>
-      <c r="Q29">
         <v>4</v>
       </c>
-      <c r="R29">
-        <v>17</v>
-      </c>
-      <c r="S29" t="s">
-        <v>13</v>
-      </c>
-      <c r="T29">
-        <v>0.1031</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R29" t="s">
+        <v>15</v>
+      </c>
+      <c r="S29">
+        <f>AVERAGE(VLOOKUP(R29,B26:D62,3,FALSE),VLOOKUP(R29,E26:G62,3,FALSE),VLOOKUP(R29,H26:J62,3,FALSE),VLOOKUP(R29,K26:M62,3,FALSE),VLOOKUP(R29,N26:P62,3,FALSE))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>8.14E-2</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30">
-        <v>8.14E-2</v>
-      </c>
-      <c r="E30">
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="G30">
         <v>5</v>
       </c>
-      <c r="F30">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30">
-        <v>0.13220000000000001</v>
+      <c r="H30" t="s">
+        <v>13</v>
       </c>
       <c r="I30">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="J30">
         <v>5</v>
       </c>
-      <c r="J30">
-        <v>16</v>
-      </c>
       <c r="K30" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L30">
-        <v>6.8099999999999994E-2</v>
+        <v>0.107</v>
       </c>
       <c r="M30">
         <v>5</v>
       </c>
-      <c r="N30">
-        <v>6</v>
-      </c>
-      <c r="O30" t="s">
-        <v>22</v>
+      <c r="N30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="P30">
-        <v>0.107</v>
-      </c>
-      <c r="Q30">
         <v>5</v>
       </c>
-      <c r="R30">
-        <v>6</v>
-      </c>
-      <c r="S30" t="s">
-        <v>22</v>
-      </c>
-      <c r="T30">
-        <v>0.1018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R30" t="s">
+        <v>16</v>
+      </c>
+      <c r="S30">
+        <f>AVERAGE(VLOOKUP(R30,B26:D62,3,FALSE),VLOOKUP(R30,E26:G62,3,FALSE),VLOOKUP(R30,H26:J62,3,FALSE),VLOOKUP(R30,K26:M62,3,FALSE),VLOOKUP(R30,N26:P62,3,FALSE))</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>6</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31" t="s">
         <v>18</v>
       </c>
-      <c r="D31">
+      <c r="I31">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="E31">
+      <c r="J31">
         <v>6</v>
       </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="I31">
-        <v>6</v>
-      </c>
-      <c r="J31">
-        <v>14</v>
-      </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L31">
-        <v>5.8900000000000001E-2</v>
+        <v>0.1038</v>
       </c>
       <c r="M31">
         <v>6</v>
       </c>
-      <c r="N31">
-        <v>14</v>
-      </c>
-      <c r="O31" t="s">
-        <v>19</v>
+      <c r="N31" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31">
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="P31">
-        <v>0.1038</v>
-      </c>
-      <c r="Q31">
         <v>6</v>
       </c>
-      <c r="R31">
-        <v>11</v>
-      </c>
-      <c r="S31" t="s">
-        <v>21</v>
-      </c>
-      <c r="T31">
-        <v>5.5899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31">
+        <f>AVERAGE(VLOOKUP(R31,B26:D62,3,FALSE),VLOOKUP(R31,E26:G62,3,FALSE),VLOOKUP(R31,H26:J62,3,FALSE),VLOOKUP(R31,K26:M62,3,FALSE),VLOOKUP(R31,N26:P62,3,FALSE))</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>7</v>
       </c>
-      <c r="B32">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="D32">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="E32">
         <v>7</v>
       </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
       <c r="F32">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32">
         <v>1.3899999999999999E-2</v>
       </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
       <c r="I32">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="J32">
         <v>7</v>
       </c>
-      <c r="J32">
-        <v>12</v>
-      </c>
       <c r="K32" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L32">
-        <v>5.6800000000000003E-2</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="M32">
         <v>7</v>
       </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32" t="s">
-        <v>27</v>
+      <c r="N32" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32">
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="P32">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="Q32">
         <v>7</v>
       </c>
-      <c r="R32">
-        <v>9</v>
-      </c>
-      <c r="S32" t="s">
-        <v>24</v>
-      </c>
-      <c r="T32">
-        <v>5.5599999999999997E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R32" t="s">
+        <v>18</v>
+      </c>
+      <c r="S32">
+        <f>AVERAGE(VLOOKUP(R32,B26:D62,3,FALSE),VLOOKUP(R32,E26:G62,3,FALSE),VLOOKUP(R32,H26:J62,3,FALSE),VLOOKUP(R32,K26:M62,3,FALSE),VLOOKUP(R32,N26:P62,3,FALSE))</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>3.78E-2</v>
       </c>
       <c r="D33">
-        <v>3.78E-2</v>
-      </c>
-      <c r="E33">
         <v>8</v>
       </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
       <c r="F33">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
       </c>
       <c r="I33">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="J33">
         <v>8</v>
       </c>
-      <c r="J33">
-        <v>9</v>
-      </c>
       <c r="K33" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L33">
-        <v>5.4100000000000002E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="M33">
         <v>8</v>
       </c>
-      <c r="N33">
-        <v>17</v>
-      </c>
-      <c r="O33" t="s">
-        <v>13</v>
+      <c r="N33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33">
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="P33">
-        <v>4.41E-2</v>
-      </c>
-      <c r="Q33">
         <v>8</v>
       </c>
-      <c r="R33">
-        <v>5</v>
-      </c>
-      <c r="S33" t="s">
-        <v>17</v>
-      </c>
-      <c r="T33">
-        <v>5.5300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R33" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33">
+        <f>AVERAGE(VLOOKUP(R33,B26:D62,3,FALSE),VLOOKUP(R33,E26:G62,3,FALSE),VLOOKUP(R33,H26:J62,3,FALSE),VLOOKUP(R33,K26:M62,3,FALSE),VLOOKUP(R33,N26:P62,3,FALSE))</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
-      <c r="B34">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
         <v>21</v>
       </c>
-      <c r="D34">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="E34">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="J34">
         <v>9</v>
       </c>
-      <c r="F34">
-        <v>6</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>9</v>
-      </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L34">
-        <v>4.9599999999999998E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="M34">
         <v>9</v>
       </c>
-      <c r="N34">
-        <v>11</v>
-      </c>
-      <c r="O34" t="s">
-        <v>21</v>
+      <c r="N34" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34">
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="P34">
-        <v>4.19E-2</v>
-      </c>
-      <c r="Q34">
         <v>9</v>
       </c>
-      <c r="R34">
-        <v>4</v>
-      </c>
-      <c r="S34" t="s">
-        <v>27</v>
-      </c>
-      <c r="T34">
-        <v>4.9200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R34" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34">
+        <f>AVERAGE(VLOOKUP(R34,B26:D62,3,FALSE),VLOOKUP(R34,E26:G62,3,FALSE),VLOOKUP(R34,H26:J62,3,FALSE),VLOOKUP(R27,K26:M62,3,FALSE),VLOOKUP(R34,N26:P62,3,FALSE))</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>10</v>
       </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="D35">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="E35">
         <v>10</v>
       </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
       <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
       </c>
       <c r="I35">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="J35">
         <v>10</v>
-      </c>
-      <c r="J35">
-        <v>5</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
       </c>
       <c r="L35">
-        <v>4.8599999999999997E-2</v>
+        <v>3.39E-2</v>
       </c>
       <c r="M35">
         <v>10</v>
       </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35" t="s">
-        <v>18</v>
+      <c r="N35" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35">
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="P35">
-        <v>3.39E-2</v>
-      </c>
-      <c r="Q35">
         <v>10</v>
       </c>
-      <c r="R35">
-        <v>7</v>
-      </c>
-      <c r="S35" t="s">
-        <v>30</v>
-      </c>
-      <c r="T35">
-        <v>4.6600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R35" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35">
+        <f>AVERAGE(VLOOKUP(R35,B26:D62,3,FALSE),VLOOKUP(R35,E26:G62,3,FALSE),VLOOKUP(R35,H26:J62,3,FALSE),VLOOKUP(R35,K26:M62,3,FALSE),VLOOKUP(R35,N26:P62,3,FALSE))</f>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>11</v>
       </c>
-      <c r="B36">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D36">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E36">
         <v>11</v>
       </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
       <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
       </c>
       <c r="I36">
-        <v>11</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="J36">
         <v>11</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L36">
-        <v>4.3900000000000002E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="M36">
         <v>11</v>
       </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36" t="s">
-        <v>26</v>
+      <c r="N36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36">
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="P36">
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="Q36">
         <v>11</v>
       </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-      <c r="S36" t="s">
-        <v>18</v>
-      </c>
-      <c r="T36">
-        <v>3.2800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S36">
+        <f>AVERAGE(VLOOKUP(R36,B26:D62,3,FALSE),VLOOKUP(R36,E26:G62,3,FALSE),VLOOKUP(R36,H26:J62,3,FALSE),VLOOKUP(R36,K26:M62,3,FALSE),VLOOKUP(R36,N26:P62,3,FALSE))</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>12</v>
       </c>
-      <c r="B37">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
         <v>24</v>
       </c>
-      <c r="D37">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="E37">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="J37">
         <v>12</v>
       </c>
-      <c r="F37">
-        <v>8</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>12</v>
-      </c>
-      <c r="J37">
-        <v>8</v>
-      </c>
       <c r="K37" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L37">
-        <v>3.7199999999999997E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="M37">
         <v>12</v>
       </c>
-      <c r="N37">
+      <c r="N37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37">
+        <v>3.32E-2</v>
+      </c>
+      <c r="P37">
         <v>12</v>
       </c>
-      <c r="O37" t="s">
-        <v>16</v>
-      </c>
-      <c r="P37">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="Q37">
-        <v>12</v>
-      </c>
-      <c r="R37">
-        <v>8</v>
-      </c>
-      <c r="S37" t="s">
-        <v>25</v>
-      </c>
-      <c r="T37">
-        <v>2.3400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37">
+        <f>AVERAGE(VLOOKUP(R37,B26:D62,3,FALSE),VLOOKUP(R37,E26:G62,3,FALSE),VLOOKUP(R37,H26:J62,3,FALSE),VLOOKUP(R37,K26:M62,3,FALSE),VLOOKUP(R37,N26:P62,3,FALSE))</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>13</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>8</v>
       </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="E38">
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="J38">
         <v>13</v>
       </c>
-      <c r="F38">
-        <v>7</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>13</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L38">
-        <v>2.9100000000000001E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="M38">
         <v>13</v>
       </c>
-      <c r="N38">
-        <v>3</v>
-      </c>
-      <c r="O38" t="s">
-        <v>15</v>
+      <c r="N38" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38">
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="P38">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="Q38">
         <v>13</v>
       </c>
-      <c r="R38">
-        <v>12</v>
-      </c>
-      <c r="S38" t="s">
-        <v>16</v>
-      </c>
-      <c r="T38">
-        <v>2.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S38">
+        <f>AVERAGE(VLOOKUP(R38,B26:D62,3,FALSE),VLOOKUP(R38,E26:G62,3,FALSE),VLOOKUP(R38,H26:J62,3,FALSE),VLOOKUP(R38,K26:M62,3,FALSE),VLOOKUP(R38,N26:P62,3,FALSE))</f>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>14</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D39">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="E39">
         <v>14</v>
       </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
       <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
       </c>
       <c r="I39">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="J39">
         <v>14</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
       <c r="K39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L39">
-        <v>2.1600000000000001E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="M39">
         <v>14</v>
       </c>
-      <c r="N39">
-        <v>2</v>
-      </c>
-      <c r="O39" t="s">
-        <v>29</v>
+      <c r="N39" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39">
+        <v>1.43E-2</v>
       </c>
       <c r="P39">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="Q39">
         <v>14</v>
       </c>
-      <c r="R39">
-        <v>14</v>
-      </c>
-      <c r="S39" t="s">
-        <v>19</v>
-      </c>
-      <c r="T39">
-        <v>1.9099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R39" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39">
+        <f>AVERAGE(VLOOKUP(R39,B26:D62,3,FALSE),VLOOKUP(R39,E26:G62,3,FALSE),VLOOKUP(R39,H26:J62,3,FALSE),VLOOKUP(R39,K26:M62,3,FALSE),VLOOKUP(R39,N26:P62,3,FALSE))</f>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>15</v>
       </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
         <v>27</v>
       </c>
-      <c r="D40">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="E40">
-        <v>15</v>
-      </c>
-      <c r="F40">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="I40">
-        <v>15</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="J40">
         <v>15</v>
       </c>
       <c r="K40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L40">
-        <v>2.1600000000000001E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="M40">
         <v>15</v>
       </c>
-      <c r="N40">
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="P40">
         <v>15</v>
       </c>
-      <c r="O40" t="s">
-        <v>28</v>
-      </c>
-      <c r="P40">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="Q40">
-        <v>15</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="R40" t="s">
         <v>26</v>
       </c>
-      <c r="T40">
-        <v>1.72E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S40">
+        <f>AVERAGE(VLOOKUP(R40,B26:D62,3,FALSE),VLOOKUP(R40,E26:G62,3,FALSE),VLOOKUP(R40,H26:J62,3,FALSE),VLOOKUP(R40,K26:M62,3,FALSE),VLOOKUP(R40,N26:P62,3,FALSE))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>16</v>
       </c>
-      <c r="B41">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>28</v>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="D41">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="E41">
         <v>16</v>
       </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
       <c r="F41">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
         <v>19</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="I41">
+        <v>1.47E-2</v>
+      </c>
+      <c r="J41">
         <v>16</v>
       </c>
-      <c r="J41">
-        <v>10</v>
-      </c>
       <c r="K41" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L41">
-        <v>1.47E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="M41">
         <v>16</v>
       </c>
-      <c r="N41">
-        <v>8</v>
-      </c>
-      <c r="O41" t="s">
-        <v>25</v>
+      <c r="N41" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41">
+        <v>1.12E-2</v>
       </c>
       <c r="P41">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q41">
         <v>16</v>
       </c>
-      <c r="R41">
-        <v>15</v>
-      </c>
-      <c r="S41" t="s">
-        <v>28</v>
-      </c>
-      <c r="T41">
-        <v>4.3E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R41" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41">
+        <f>AVERAGE(VLOOKUP(R41,B26:D62,3,FALSE),VLOOKUP(R41,E26:G62,3,FALSE),VLOOKUP(R41,H26:J62,3,FALSE),VLOOKUP(R41,K26:M62,3,FALSE),VLOOKUP(R41,N26:P62,3,FALSE))</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>17</v>
       </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>1.14E-2</v>
       </c>
       <c r="D42">
-        <v>1.14E-2</v>
-      </c>
-      <c r="E42">
         <v>17</v>
       </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
       <c r="F42">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
         <v>28</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
       <c r="I42">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="J42">
         <v>17</v>
-      </c>
-      <c r="J42">
-        <v>2</v>
       </c>
       <c r="K42" t="s">
         <v>29</v>
       </c>
       <c r="L42">
-        <v>8.3000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>17</v>
       </c>
-      <c r="N42">
-        <v>7</v>
-      </c>
-      <c r="O42" t="s">
-        <v>30</v>
+      <c r="N42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O42">
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
         <v>17</v>
       </c>
-      <c r="R42">
-        <v>10</v>
-      </c>
-      <c r="S42" t="s">
-        <v>20</v>
-      </c>
-      <c r="T42">
-        <v>4.1999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R42" t="s">
+        <v>28</v>
+      </c>
+      <c r="S42">
+        <f>AVERAGE(VLOOKUP(R42,B26:D62,3,FALSE),VLOOKUP(R42,E26:G62,3,FALSE),VLOOKUP(R42,H26:J62,3,FALSE),VLOOKUP(R42,K26:M62,3,FALSE),VLOOKUP(R42,N26:P62,3,FALSE))</f>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>18</v>
       </c>
-      <c r="B43">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>30</v>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="D43">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="E43">
         <v>18</v>
       </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
+      <c r="G43">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
       </c>
       <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>18</v>
       </c>
-      <c r="J43">
-        <v>7</v>
-      </c>
       <c r="K43" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
+        <v>17</v>
+      </c>
+      <c r="N43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="P43">
         <v>18</v>
       </c>
-      <c r="N43">
-        <v>10</v>
-      </c>
-      <c r="O43" t="s">
-        <v>20</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>18</v>
-      </c>
-      <c r="R43">
-        <v>2</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="R43" t="s">
         <v>29</v>
       </c>
-      <c r="T43">
-        <v>0</v>
+      <c r="S43">
+        <f>AVERAGE(VLOOKUP(R43,B26:D62,3,FALSE),VLOOKUP(R43,E26:G62,3,FALSE),VLOOKUP(R43,H26:J62,3,FALSE),VLOOKUP(R43,K26:M62,3,FALSE),VLOOKUP(R43,N26:P62,3,FALSE))</f>
+        <v>15.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Q24:T24"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3245,450 +6599,695 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R21"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>3.2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>5.6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4">
+        <v>4.2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>5.6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>5.8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>5.2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8">
+        <v>6.2</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.86136000000000001</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.9685992491054069E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.77384000000000008</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.92915999999999987</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.66505999999999987</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.76083999999999996</v>
-      </c>
-      <c r="M4" s="3">
-        <v>3.1948208087465568E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.58507999999999993</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.79220000000000002</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.49581999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1">
-        <v>0.89993999999999996</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.83792000000000011</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.97241999999999995</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="1">
-        <v>0.82987999999999995</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.76822000000000001</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.91163999999999989</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.83097999999999994</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.607877482894763E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.71787999999999996</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.90454000000000012</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.59748000000000001</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.67212000000000005</v>
-      </c>
-      <c r="M6" s="3">
-        <v>6.1897512066318133E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.44420000000000004</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.59919999999999995</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.37918000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="1">
-        <v>0.87919999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.80906</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.96319999999999995</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="1">
-        <v>0.76402000000000003</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.70777999999999996</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.83861999999999992</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.84045999999999998</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.5517502128302252E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.75038000000000005</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.86069999999999991</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.66916000000000009</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.7466799999999999</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4.3920177595269359E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.59216000000000002</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.71016000000000001</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0.51916000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1">
-        <v>0.88257999999999992</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.83452000000000004</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.93756000000000006</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="1">
-        <v>0.81501999999999997</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0.76506000000000007</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.87540000000000018</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="J13" s="4"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="J14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="J15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="J16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="J17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="J18" s="4"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>6.6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>11.2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>11.2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>10.4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>11.8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>10.4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>12.2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14">
+        <v>10.4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>12.6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <v>10.6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>12.6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>11.2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>14.2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17">
+        <v>12.8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>14.2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>14.8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19">
+        <v>17.2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>14.8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20">
+        <v>17.2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>15.6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>21.4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="D4:D5"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RandomForest/CV/Metrics.xlsx
+++ b/RandomForest/CV/Metrics.xlsx
@@ -18,9 +18,10 @@
     <sheet name="Feature ranking" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Feature ranking'!$H$2:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Feature ranking'!$M$2:$N$20</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="72">
   <si>
     <t>Accuracy</t>
   </si>
@@ -231,6 +232,21 @@
   </si>
   <si>
     <t>Sr no</t>
+  </si>
+  <si>
+    <t>CV1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV2 </t>
+  </si>
+  <si>
+    <t>CV3</t>
+  </si>
+  <si>
+    <t>CV4</t>
+  </si>
+  <si>
+    <t>CV5</t>
   </si>
 </sst>
 </file>
@@ -565,12 +581,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="5" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2832,8 +2849,8 @@
         <v>54</v>
       </c>
       <c r="S51">
-        <f>AVERAGE(VLOOKUP(R23,B22:D58,3,FALSE),VLOOKUP(R23,E22:G58,3,FALSE),VLOOKUP(R23,H22:J58,3,FALSE),VLOOKUP(R23,K22:M58,3,FALSE),VLOOKUP(R23,N22:P58,3,FALSE))</f>
-        <v>5.6</v>
+        <f>AVERAGE(VLOOKUP(R51,B22:D58,3,FALSE),VLOOKUP(R51,E22:G58,3,FALSE),VLOOKUP(R51,H22:J58,3,FALSE),VLOOKUP(R51,K22:M58,3,FALSE),VLOOKUP(R51,N22:P58,3,FALSE))</f>
+        <v>12.8</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
@@ -6599,37 +6616,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="3" max="7" width="8.26953125" customWidth="1"/>
+    <col min="10" max="10" width="18.90625" customWidth="1"/>
+    <col min="13" max="13" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="5"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
@@ -6637,24 +6660,39 @@
         <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6662,22 +6700,43 @@
         <v>22</v>
       </c>
       <c r="C3">
+        <f>VLOOKUP(B3,All!B:D,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP(B3,All!E:G,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(B3,All!H:J,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP(B3,All!K:M,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP(B3,All!N:P,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H39" si="0">AVERAGE(C3:G3)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F3">
+      <c r="K3">
         <v>3.2</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3">
+      <c r="M3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3">
         <v>2.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6685,506 +6744,1073 @@
         <v>12</v>
       </c>
       <c r="C4">
+        <f>VLOOKUP(B4,All!B:D,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP(B4,All!E:G,3,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(B4,All!H:J,3,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(B4,All!K:M,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP(B4,All!N:P,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F4">
+      <c r="K4">
         <v>4.2</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4">
+      <c r="N4">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>5.6</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <f>VLOOKUP(B5,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP(B5,All!E:G,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(B5,All!H:J,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP(B5,All!K:M,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP(B5,All!N:P,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F5">
+      <c r="K5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5">
+      <c r="N5">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6">
+        <f>VLOOKUP(B6,All!B:D,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP(B6,All!E:G,3,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(B6,All!H:J,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(B6,All!K:M,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP(B6,All!N:P,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6">
+        <v>5.2</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6">
         <v>5.8</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6">
-        <v>5.2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <f>VLOOKUP(B7,All!B:D,3,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP(B7,All!E:G,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(B7,All!H:J,3,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP(B7,All!K:M,3,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP(B7,All!N:P,3,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7">
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7">
+      <c r="N7">
         <v>6.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
       <c r="C8">
+        <f>VLOOKUP(B8,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP(B8,All!E:G,3,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP(B8,All!H:J,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP(B8,All!K:M,3,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP(B8,All!N:P,3,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F8">
+      <c r="K8">
         <v>6.2</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I8">
+      <c r="N8">
         <v>6.4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <f>VLOOKUP(B9,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP(B9,All!E:G,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP(B9,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP(B9,All!K:M,3,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP(B9,All!N:P,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F9">
+      <c r="K9">
         <v>6.6</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I9">
+      <c r="N9">
         <v>6.4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <f>VLOOKUP(B10,All!B:D,3,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f>VLOOKUP(B10,All!E:G,3,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP(B10,All!H:J,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP(B10,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP(B10,All!N:P,3,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F10">
+      <c r="K10">
         <v>10</v>
       </c>
-      <c r="H10" t="s">
+      <c r="M10" t="s">
         <v>15</v>
       </c>
-      <c r="I10">
+      <c r="N10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
       <c r="C11">
+        <f>VLOOKUP(B11,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP(B11,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP(B11,All!H:J,3,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP(B11,All!K:M,3,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP(B11,All!N:P,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F11">
+      <c r="K11">
         <v>10.199999999999999</v>
       </c>
-      <c r="H11" t="s">
+      <c r="M11" t="s">
         <v>18</v>
       </c>
-      <c r="I11">
+      <c r="N11">
         <v>7.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP(B12,All!B:D,3,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP(B12,All!E:G,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP(B12,All!H:J,3,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP(B12,All!K:M,3,FALSE)</f>
         <v>21</v>
       </c>
-      <c r="C12">
-        <v>11.2</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12">
+        <f>VLOOKUP(B12,All!N:P,3,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F12">
+      <c r="K12">
         <v>10.4</v>
       </c>
-      <c r="H12" t="s">
+      <c r="M12" t="s">
         <v>20</v>
       </c>
-      <c r="I12">
+      <c r="N12">
         <v>8.4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(B13,All!B:D,3,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP(B13,All!E:G,3,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(B13,All!H:J,3,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP(B13,All!K:M,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP(B13,All!N:P,3,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13">
-        <v>11.8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13">
+      <c r="K13">
         <v>10.4</v>
       </c>
-      <c r="H13" t="s">
+      <c r="M13" t="s">
         <v>26</v>
       </c>
-      <c r="I13">
+      <c r="N13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>12.2</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <f>VLOOKUP(B14,All!B:D,3,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP(B14,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(B14,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP(B14,All!K:M,3,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP(B14,All!N:P,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F14">
+      <c r="K14">
         <v>10.4</v>
       </c>
-      <c r="H14" t="s">
+      <c r="M14" t="s">
         <v>17</v>
       </c>
-      <c r="I14">
+      <c r="N14">
         <v>9.4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C15">
+        <f>VLOOKUP(B15,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP(B15,All!E:G,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(B15,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(B15,All!K:M,3,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP(B15,All!N:P,3,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F15">
+      <c r="K15">
         <v>10.6</v>
       </c>
-      <c r="H15" t="s">
+      <c r="M15" t="s">
         <v>24</v>
       </c>
-      <c r="I15">
+      <c r="N15">
         <v>11.6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16">
-        <v>12.6</v>
-      </c>
-      <c r="E16" s="3" t="s">
+        <f>VLOOKUP(B16,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP(B16,All!E:G,3,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP(B16,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP(B16,All!K:M,3,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP(B16,All!N:P,3,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F16">
+      <c r="K16">
         <v>11.2</v>
       </c>
-      <c r="H16" t="s">
+      <c r="M16" t="s">
         <v>25</v>
       </c>
-      <c r="I16">
+      <c r="N16">
         <v>12.2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
+      <c r="B17" t="s">
+        <v>15</v>
       </c>
       <c r="C17">
+        <f>VLOOKUP(B17,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP(B17,All!E:G,3,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP(B17,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <f>VLOOKUP(B17,All!K:M,3,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP(B17,All!N:P,3,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
         <v>14.2</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F17">
+      <c r="K17">
         <v>12.8</v>
       </c>
-      <c r="H17" t="s">
+      <c r="M17" t="s">
         <v>19</v>
       </c>
-      <c r="I17">
+      <c r="N17">
         <v>13.2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP(B18,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP(B18,All!E:G,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP(B18,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <f>VLOOKUP(B18,All!K:M,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <f>VLOOKUP(B18,All!N:P,3,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="C18">
-        <v>14.2</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>14.8</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F18">
+      <c r="K18">
         <v>14</v>
       </c>
-      <c r="H18" t="s">
+      <c r="M18" t="s">
         <v>28</v>
       </c>
-      <c r="I18">
+      <c r="N18">
         <v>13.8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C19">
+        <f>VLOOKUP(B19,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP(B19,All!E:G,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP(B19,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <f>VLOOKUP(B19,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <f>VLOOKUP(B19,All!N:P,3,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
         <v>14.8</v>
       </c>
-      <c r="E19" t="s">
+      <c r="J19" t="s">
         <v>59</v>
       </c>
-      <c r="F19">
+      <c r="K19">
         <v>17.2</v>
       </c>
-      <c r="H19" t="s">
+      <c r="M19" t="s">
         <v>27</v>
       </c>
-      <c r="I19">
+      <c r="N19">
         <v>14.4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>14.8</v>
-      </c>
-      <c r="E20" t="s">
+        <f>VLOOKUP(B20,All!B:D,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP(B20,All!E:G,3,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP(B20,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <f>VLOOKUP(B20,All!K:M,3,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <f>VLOOKUP(B20,All!N:P,3,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>15.6</v>
+      </c>
+      <c r="J20" t="s">
         <v>52</v>
       </c>
-      <c r="F20">
+      <c r="K20">
         <v>17.2</v>
       </c>
-      <c r="H20" t="s">
+      <c r="M20" t="s">
         <v>29</v>
       </c>
-      <c r="I20">
+      <c r="N20">
         <v>15.2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
+      <c r="B21" t="s">
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>15.6</v>
-      </c>
-      <c r="E21" t="s">
+        <f>VLOOKUP(B21,All!B:D,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP(B21,All!E:G,3,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP(B21,All!H:J,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <f>VLOOKUP(B21,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <f>VLOOKUP(B21,All!N:P,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
         <v>50</v>
       </c>
-      <c r="F21">
+      <c r="K21">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>27</v>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C22">
+        <f>VLOOKUP(B22,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP(B22,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP(B22,All!H:J,3,FALSE)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <f>VLOOKUP(B22,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <f>VLOOKUP(B22,All!N:P,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>48</v>
+      <c r="B23" t="s">
+        <v>51</v>
       </c>
       <c r="C23">
+        <f>VLOOKUP(B23,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <f>VLOOKUP(B23,All!E:G,3,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP(B23,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <f>VLOOKUP(B23,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <f>VLOOKUP(B23,All!N:P,3,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>51</v>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <f>VLOOKUP(B24,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP(B24,All!E:G,3,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP(B24,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <f>VLOOKUP(B24,All!K:M,3,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="G24">
+        <f>VLOOKUP(B24,All!N:P,3,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>47</v>
+      <c r="B25" t="s">
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+        <f>VLOOKUP(B25,All!B:D,3,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP(B25,All!E:G,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP(B25,All!H:J,3,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <f>VLOOKUP(B25,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <f>VLOOKUP(B25,All!N:P,3,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
+      <c r="B26" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C26">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <f>VLOOKUP(B26,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <f>VLOOKUP(B26,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP(B26,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <f>VLOOKUP(B26,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G26">
+        <f>VLOOKUP(B26,All!N:P,3,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C27">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <f>VLOOKUP(B27,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP(B27,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <f>VLOOKUP(B27,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <f>VLOOKUP(B27,All!K:M,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <f>VLOOKUP(B27,All!N:P,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>49</v>
+      <c r="B28" t="s">
+        <v>25</v>
       </c>
       <c r="C28">
+        <f>VLOOKUP(B28,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP(B28,All!E:G,3,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <f>VLOOKUP(B28,All!H:J,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <f>VLOOKUP(B28,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <f>VLOOKUP(B28,All!N:P,3,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>25</v>
+      <c r="B29" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C29">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <f>VLOOKUP(B29,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP(B29,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP(B29,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <f>VLOOKUP(B29,All!K:M,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <f>VLOOKUP(B29,All!N:P,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>60</v>
+      <c r="B30" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <f>VLOOKUP(B30,All!B:D,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP(B30,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP(B30,All!H:J,3,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <f>VLOOKUP(B30,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G30">
+        <f>VLOOKUP(B30,All!N:P,3,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -7192,10 +7818,31 @@
         <v>57</v>
       </c>
       <c r="C31">
+        <f>VLOOKUP(B31,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP(B31,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP(B31,All!H:J,3,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <f>VLOOKUP(B31,All!K:M,3,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <f>VLOOKUP(B31,All!N:P,3,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -7203,10 +7850,31 @@
         <v>19</v>
       </c>
       <c r="C32">
+        <f>VLOOKUP(B32,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP(B32,All!E:G,3,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP(B32,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <f>VLOOKUP(B32,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G32">
+        <f>VLOOKUP(B32,All!N:P,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
         <v>18.8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -7214,10 +7882,31 @@
         <v>20</v>
       </c>
       <c r="C33">
+        <f>VLOOKUP(B33,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP(B33,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP(B33,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <f>VLOOKUP(B33,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G33">
+        <f>VLOOKUP(B33,All!N:P,3,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -7225,10 +7914,31 @@
         <v>46</v>
       </c>
       <c r="C34">
+        <f>VLOOKUP(B34,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP(B34,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP(B34,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <f>VLOOKUP(B34,All!K:M,3,FALSE)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <f>VLOOKUP(B34,All!N:P,3,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -7236,10 +7946,31 @@
         <v>24</v>
       </c>
       <c r="C35">
+        <f>VLOOKUP(B35,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <f>VLOOKUP(B35,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP(B35,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <f>VLOOKUP(B35,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G35">
+        <f>VLOOKUP(B35,All!N:P,3,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
         <v>20.8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -7247,10 +7978,31 @@
         <v>28</v>
       </c>
       <c r="C36">
+        <f>VLOOKUP(B36,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP(B36,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <f>VLOOKUP(B36,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <f>VLOOKUP(B36,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G36">
+        <f>VLOOKUP(B36,All!N:P,3,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
         <v>21.4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -7258,10 +8010,31 @@
         <v>50</v>
       </c>
       <c r="C37">
+        <f>VLOOKUP(B37,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP(B37,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E37">
+        <f>VLOOKUP(B37,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <f>VLOOKUP(B37,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G37">
+        <f>VLOOKUP(B37,All!N:P,3,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
         <v>21.4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -7269,10 +8042,31 @@
         <v>52</v>
       </c>
       <c r="C38">
+        <f>VLOOKUP(B38,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP(B38,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <f>VLOOKUP(B38,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <f>VLOOKUP(B38,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G38">
+        <f>VLOOKUP(B38,All!N:P,3,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
         <v>21.4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -7280,14 +8074,38 @@
         <v>59</v>
       </c>
       <c r="C39">
+        <f>VLOOKUP(B39,All!B:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP(B39,All!E:G,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <f>VLOOKUP(B39,All!H:J,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F39">
+        <f>VLOOKUP(B39,All!K:M,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="G39">
+        <f>VLOOKUP(B39,All!N:P,3,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
         <v>21.4</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:H39">
+    <sortCondition ref="H3:H39"/>
+  </sortState>
   <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
